--- a/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12718</v>
+        <v>12806</v>
       </c>
       <c r="D2" t="n">
-        <v>18624271</v>
+        <v>18944872</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26049</v>
+        <v>26380</v>
       </c>
       <c r="D4" t="n">
-        <v>36566179</v>
+        <v>37583153</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D5" t="n">
-        <v>591879</v>
+        <v>613379</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1372</v>
+        <v>1379</v>
       </c>
       <c r="D6" t="n">
-        <v>1834108</v>
+        <v>1861701</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63653</v>
+        <v>63876</v>
       </c>
       <c r="D7" t="n">
-        <v>94397140</v>
+        <v>95070087</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>98455</v>
+        <v>100238</v>
       </c>
       <c r="D8" t="n">
-        <v>172041557</v>
+        <v>182365876</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38646</v>
+        <v>39042</v>
       </c>
       <c r="D9" t="n">
-        <v>67933028</v>
+        <v>69640839</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>103638</v>
+        <v>106320</v>
       </c>
       <c r="D10" t="n">
-        <v>238973412</v>
+        <v>256830884</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12910</v>
+        <v>13094</v>
       </c>
       <c r="D11" t="n">
-        <v>19601333</v>
+        <v>20182370</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4736</v>
+        <v>4802</v>
       </c>
       <c r="D12" t="n">
-        <v>7310920</v>
+        <v>7477284</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17755</v>
+        <v>17963</v>
       </c>
       <c r="D13" t="n">
-        <v>27943906</v>
+        <v>28856379</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60155</v>
+        <v>60955</v>
       </c>
       <c r="D14" t="n">
-        <v>95532861</v>
+        <v>98758139</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29791</v>
+        <v>30135</v>
       </c>
       <c r="D15" t="n">
-        <v>48379391</v>
+        <v>49719091</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>56412</v>
+        <v>57063</v>
       </c>
       <c r="D17" t="n">
-        <v>79010543</v>
+        <v>81002726</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49289</v>
+        <v>49366</v>
       </c>
       <c r="D18" t="n">
-        <v>65887612</v>
+        <v>66037786</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49497</v>
+        <v>50194</v>
       </c>
       <c r="D19" t="n">
-        <v>77007963</v>
+        <v>79522397</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>67801</v>
+        <v>69493</v>
       </c>
       <c r="D20" t="n">
-        <v>104723121</v>
+        <v>111816515</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4408</v>
+        <v>4443</v>
       </c>
       <c r="D21" t="n">
-        <v>6659293</v>
+        <v>6798204</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7077</v>
+        <v>7165</v>
       </c>
       <c r="D23" t="n">
-        <v>9560970</v>
+        <v>9805323</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D25" t="n">
-        <v>701590</v>
+        <v>703410</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15153</v>
+        <v>15192</v>
       </c>
       <c r="D26" t="n">
-        <v>21936354</v>
+        <v>22028044</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29414</v>
+        <v>29969</v>
       </c>
       <c r="D27" t="n">
-        <v>49882875</v>
+        <v>52970272</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3981</v>
+        <v>4008</v>
       </c>
       <c r="D28" t="n">
-        <v>6491359</v>
+        <v>6609607</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29354</v>
+        <v>30115</v>
       </c>
       <c r="D29" t="n">
-        <v>62822832</v>
+        <v>67629727</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2323</v>
+        <v>2346</v>
       </c>
       <c r="D30" t="n">
-        <v>3449802</v>
+        <v>3539984</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1060</v>
+        <v>1077</v>
       </c>
       <c r="D31" t="n">
-        <v>1559173</v>
+        <v>1602470</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3713</v>
+        <v>3741</v>
       </c>
       <c r="D32" t="n">
-        <v>5538410</v>
+        <v>5692104</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11463</v>
+        <v>11609</v>
       </c>
       <c r="D33" t="n">
-        <v>18169519</v>
+        <v>18869902</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5840</v>
+        <v>5889</v>
       </c>
       <c r="D34" t="n">
-        <v>8992914</v>
+        <v>9136688</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8673</v>
+        <v>8798</v>
       </c>
       <c r="D36" t="n">
-        <v>11859582</v>
+        <v>12346496</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10775</v>
+        <v>10791</v>
       </c>
       <c r="D37" t="n">
-        <v>14290287</v>
+        <v>14318377</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12306</v>
+        <v>12475</v>
       </c>
       <c r="D38" t="n">
-        <v>17980440</v>
+        <v>18560641</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20781</v>
+        <v>21291</v>
       </c>
       <c r="D39" t="n">
-        <v>32396186</v>
+        <v>34586484</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3560</v>
+        <v>3584</v>
       </c>
       <c r="D40" t="n">
-        <v>5140070</v>
+        <v>5217990</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9651</v>
+        <v>9794</v>
       </c>
       <c r="D42" t="n">
-        <v>12824183</v>
+        <v>13290683</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16612</v>
+        <v>16658</v>
       </c>
       <c r="D45" t="n">
-        <v>24071414</v>
+        <v>24198166</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>31890</v>
+        <v>32623</v>
       </c>
       <c r="D46" t="n">
-        <v>57137567</v>
+        <v>61581546</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5591</v>
+        <v>5657</v>
       </c>
       <c r="D47" t="n">
-        <v>9299444</v>
+        <v>9569543</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>38370</v>
+        <v>39646</v>
       </c>
       <c r="D48" t="n">
-        <v>85442810</v>
+        <v>93788519</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3936</v>
+        <v>3987</v>
       </c>
       <c r="D49" t="n">
-        <v>5743070</v>
+        <v>5931532</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1394</v>
+        <v>1410</v>
       </c>
       <c r="D50" t="n">
-        <v>2132362</v>
+        <v>2170170</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5414</v>
+        <v>5476</v>
       </c>
       <c r="D51" t="n">
-        <v>8032546</v>
+        <v>8279334</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17199</v>
+        <v>17504</v>
       </c>
       <c r="D52" t="n">
-        <v>27446861</v>
+        <v>28879717</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7229</v>
+        <v>7314</v>
       </c>
       <c r="D53" t="n">
-        <v>11087675</v>
+        <v>11429754</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9656</v>
+        <v>9816</v>
       </c>
       <c r="D55" t="n">
-        <v>13775894</v>
+        <v>14370362</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17766</v>
+        <v>17784</v>
       </c>
       <c r="D56" t="n">
-        <v>23854459</v>
+        <v>23883872</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15002</v>
+        <v>15261</v>
       </c>
       <c r="D57" t="n">
-        <v>22081378</v>
+        <v>23123786</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23234</v>
+        <v>23950</v>
       </c>
       <c r="D58" t="n">
-        <v>37558881</v>
+        <v>40684403</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3182</v>
+        <v>3211</v>
       </c>
       <c r="D59" t="n">
-        <v>4818744</v>
+        <v>4939007</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6206</v>
+        <v>6299</v>
       </c>
       <c r="D60" t="n">
-        <v>8623148</v>
+        <v>8882025</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14915</v>
+        <v>14947</v>
       </c>
       <c r="D63" t="n">
-        <v>21800100</v>
+        <v>21875035</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23987</v>
+        <v>24366</v>
       </c>
       <c r="D64" t="n">
-        <v>40931714</v>
+        <v>43106101</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6403</v>
+        <v>6465</v>
       </c>
       <c r="D65" t="n">
-        <v>11335976</v>
+        <v>11595699</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>23733</v>
+        <v>24313</v>
       </c>
       <c r="D66" t="n">
-        <v>51384940</v>
+        <v>55049757</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2584</v>
+        <v>2610</v>
       </c>
       <c r="D67" t="n">
-        <v>3853133</v>
+        <v>3924528</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>944</v>
+        <v>958</v>
       </c>
       <c r="D68" t="n">
-        <v>1448821</v>
+        <v>1471833</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3941</v>
+        <v>3981</v>
       </c>
       <c r="D69" t="n">
-        <v>6218657</v>
+        <v>6380946</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10941</v>
+        <v>11092</v>
       </c>
       <c r="D70" t="n">
-        <v>17460891</v>
+        <v>18040191</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5948</v>
+        <v>5993</v>
       </c>
       <c r="D71" t="n">
-        <v>9248335</v>
+        <v>9440011</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6945</v>
+        <v>7034</v>
       </c>
       <c r="D73" t="n">
-        <v>10080822</v>
+        <v>10396213</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9187</v>
+        <v>9200</v>
       </c>
       <c r="D74" t="n">
-        <v>12098812</v>
+        <v>12116496</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>11035</v>
+        <v>11185</v>
       </c>
       <c r="D75" t="n">
-        <v>17318770</v>
+        <v>17887955</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18450</v>
+        <v>18887</v>
       </c>
       <c r="D76" t="n">
-        <v>29269463</v>
+        <v>31064338</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2979</v>
+        <v>2996</v>
       </c>
       <c r="D77" t="n">
-        <v>4366934</v>
+        <v>4437190</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2421</v>
+        <v>2450</v>
       </c>
       <c r="D78" t="n">
-        <v>3504067</v>
+        <v>3623543</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5116</v>
+        <v>5139</v>
       </c>
       <c r="D80" t="n">
-        <v>7450611</v>
+        <v>7512302</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6794</v>
+        <v>6959</v>
       </c>
       <c r="D81" t="n">
-        <v>12578063</v>
+        <v>13530288</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="D82" t="n">
-        <v>1932275</v>
+        <v>2013797</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9396</v>
+        <v>9598</v>
       </c>
       <c r="D83" t="n">
-        <v>20726876</v>
+        <v>22172139</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D84" t="n">
-        <v>814655</v>
+        <v>865228</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D85" t="n">
-        <v>222091</v>
+        <v>225091</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1829</v>
+        <v>1851</v>
       </c>
       <c r="D86" t="n">
-        <v>2868033</v>
+        <v>2948333</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4708</v>
+        <v>4778</v>
       </c>
       <c r="D87" t="n">
-        <v>8849588</v>
+        <v>9236002</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2681</v>
+        <v>2697</v>
       </c>
       <c r="D88" t="n">
-        <v>4009442</v>
+        <v>4084195</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1499</v>
+        <v>1519</v>
       </c>
       <c r="D89" t="n">
-        <v>2108652</v>
+        <v>2188002</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1888</v>
+        <v>1893</v>
       </c>
       <c r="D90" t="n">
-        <v>2546266</v>
+        <v>2551997</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2052</v>
+        <v>2073</v>
       </c>
       <c r="D91" t="n">
-        <v>3445707</v>
+        <v>3512736</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3656</v>
+        <v>3725</v>
       </c>
       <c r="D92" t="n">
-        <v>5382304</v>
+        <v>5628129</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7776</v>
+        <v>8145</v>
       </c>
       <c r="D93" t="n">
-        <v>19812785</v>
+        <v>22133988</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12457</v>
+        <v>12609</v>
       </c>
       <c r="D95" t="n">
-        <v>17687605</v>
+        <v>18167398</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="D97" t="n">
-        <v>1807333</v>
+        <v>1833037</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31459</v>
+        <v>31548</v>
       </c>
       <c r="D98" t="n">
-        <v>46132682</v>
+        <v>46373675</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>54215</v>
+        <v>55171</v>
       </c>
       <c r="D99" t="n">
-        <v>92744898</v>
+        <v>97871211</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12235</v>
+        <v>12342</v>
       </c>
       <c r="D100" t="n">
-        <v>20044635</v>
+        <v>20460903</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>49313</v>
+        <v>50927</v>
       </c>
       <c r="D101" t="n">
-        <v>111478714</v>
+        <v>122124713</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5100</v>
+        <v>5170</v>
       </c>
       <c r="D102" t="n">
-        <v>7564697</v>
+        <v>7831500</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2244</v>
+        <v>2286</v>
       </c>
       <c r="D103" t="n">
-        <v>3378598</v>
+        <v>3474072</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6883</v>
+        <v>6979</v>
       </c>
       <c r="D104" t="n">
-        <v>10530898</v>
+        <v>10905978</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>25016</v>
+        <v>25365</v>
       </c>
       <c r="D105" t="n">
-        <v>38187067</v>
+        <v>39415818</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>11497</v>
+        <v>11635</v>
       </c>
       <c r="D106" t="n">
-        <v>17922567</v>
+        <v>18391688</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>14303</v>
+        <v>14490</v>
       </c>
       <c r="D108" t="n">
-        <v>20254713</v>
+        <v>20884151</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>22218</v>
+        <v>22254</v>
       </c>
       <c r="D109" t="n">
-        <v>30221006</v>
+        <v>30290275</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>20850</v>
+        <v>21141</v>
       </c>
       <c r="D110" t="n">
-        <v>30626033</v>
+        <v>31847140</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>41779</v>
+        <v>42894</v>
       </c>
       <c r="D111" t="n">
-        <v>64304549</v>
+        <v>68889950</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8955</v>
+        <v>9048</v>
       </c>
       <c r="D113" t="n">
-        <v>13043517</v>
+        <v>13236639</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3742</v>
+        <v>3763</v>
       </c>
       <c r="D115" t="n">
-        <v>5570538</v>
+        <v>5639180</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4820,10 +4820,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5651</v>
+        <v>5659</v>
       </c>
       <c r="D118" t="n">
-        <v>8357603</v>
+        <v>8388579</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9887</v>
+        <v>9941</v>
       </c>
       <c r="D119" t="n">
-        <v>14611639</v>
+        <v>14732005</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3103</v>
+        <v>3123</v>
       </c>
       <c r="D120" t="n">
-        <v>4671897</v>
+        <v>4709612</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10440</v>
+        <v>10532</v>
       </c>
       <c r="D121" t="n">
-        <v>17058751</v>
+        <v>17308249</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="D122" t="n">
-        <v>1483716</v>
+        <v>1491216</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D123" t="n">
-        <v>478496</v>
+        <v>501732</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="D124" t="n">
-        <v>2003383</v>
+        <v>2018991</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3713</v>
+        <v>3735</v>
       </c>
       <c r="D125" t="n">
-        <v>5560066</v>
+        <v>5637214</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5537</v>
+        <v>5585</v>
       </c>
       <c r="D126" t="n">
-        <v>8658274</v>
+        <v>8794727</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2256</v>
+        <v>2269</v>
       </c>
       <c r="D127" t="n">
-        <v>2957514</v>
+        <v>2979576</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="D128" t="n">
-        <v>3399657</v>
+        <v>3402812</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5238,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2339</v>
+        <v>2365</v>
       </c>
       <c r="D129" t="n">
-        <v>3852591</v>
+        <v>3941749</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3481</v>
+        <v>3486</v>
       </c>
       <c r="D130" t="n">
-        <v>4678370</v>
+        <v>4684485</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4045</v>
+        <v>4057</v>
       </c>
       <c r="D132" t="n">
-        <v>7140986</v>
+        <v>7185885</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1870</v>
+        <v>1876</v>
       </c>
       <c r="D134" t="n">
-        <v>3877581</v>
+        <v>3910059</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5136</v>
+        <v>5141</v>
       </c>
       <c r="D137" t="n">
-        <v>11755428</v>
+        <v>11790042</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4388</v>
+        <v>4404</v>
       </c>
       <c r="D138" t="n">
-        <v>9195313</v>
+        <v>9249463</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1466</v>
+        <v>1476</v>
       </c>
       <c r="D139" t="n">
-        <v>3239594</v>
+        <v>3291817</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3236</v>
+        <v>3251</v>
       </c>
       <c r="D140" t="n">
-        <v>6972867</v>
+        <v>7044883</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D141" t="n">
-        <v>862219</v>
+        <v>876519</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1801</v>
+        <v>1807</v>
       </c>
       <c r="D144" t="n">
-        <v>3693479</v>
+        <v>3719974</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="D145" t="n">
-        <v>4326561</v>
+        <v>4365539</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D146" t="n">
-        <v>1324390</v>
+        <v>1325687</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5952,10 +5952,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D148" t="n">
-        <v>1571678</v>
+        <v>1583678</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="D149" t="n">
-        <v>2559800</v>
+        <v>2581185</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3308</v>
+        <v>3338</v>
       </c>
       <c r="D150" t="n">
-        <v>5321746</v>
+        <v>5497048</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9672</v>
+        <v>9778</v>
       </c>
       <c r="D152" t="n">
-        <v>13198042</v>
+        <v>13468395</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6180,10 +6180,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D154" t="n">
-        <v>691256</v>
+        <v>702756</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>26221</v>
+        <v>26302</v>
       </c>
       <c r="D155" t="n">
-        <v>38168311</v>
+        <v>38361930</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>52529</v>
+        <v>53413</v>
       </c>
       <c r="D156" t="n">
-        <v>86439800</v>
+        <v>91189776</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>20443</v>
+        <v>20615</v>
       </c>
       <c r="D157" t="n">
-        <v>33961039</v>
+        <v>34645516</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>47839</v>
+        <v>49071</v>
       </c>
       <c r="D158" t="n">
-        <v>107860641</v>
+        <v>115769226</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5120</v>
+        <v>5177</v>
       </c>
       <c r="D159" t="n">
-        <v>7655010</v>
+        <v>7821695</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2314</v>
+        <v>2359</v>
       </c>
       <c r="D160" t="n">
-        <v>3539540</v>
+        <v>3632600</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6203</v>
+        <v>6271</v>
       </c>
       <c r="D161" t="n">
-        <v>9925335</v>
+        <v>10198727</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>24789</v>
+        <v>25130</v>
       </c>
       <c r="D162" t="n">
-        <v>39623947</v>
+        <v>40965540</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>11402</v>
+        <v>11521</v>
       </c>
       <c r="D163" t="n">
-        <v>18072328</v>
+        <v>18515754</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>12847</v>
+        <v>13060</v>
       </c>
       <c r="D165" t="n">
-        <v>18796842</v>
+        <v>19700175</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22758</v>
+        <v>22787</v>
       </c>
       <c r="D166" t="n">
-        <v>30835460</v>
+        <v>30885226</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>20638</v>
+        <v>20962</v>
       </c>
       <c r="D167" t="n">
-        <v>32297843</v>
+        <v>33549761</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6712,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>39569</v>
+        <v>40484</v>
       </c>
       <c r="D168" t="n">
-        <v>58849617</v>
+        <v>62461124</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="D169" t="n">
-        <v>1608331</v>
+        <v>1645208</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>27691</v>
+        <v>27990</v>
       </c>
       <c r="D171" t="n">
-        <v>42810707</v>
+        <v>44069140</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6864,10 +6864,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D172" t="n">
-        <v>1269027</v>
+        <v>1281539</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="D173" t="n">
-        <v>1904541</v>
+        <v>1970589</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>71526</v>
+        <v>71808</v>
       </c>
       <c r="D174" t="n">
-        <v>109972811</v>
+        <v>111012193</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>152853</v>
+        <v>155226</v>
       </c>
       <c r="D175" t="n">
-        <v>280866640</v>
+        <v>294481977</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>316743</v>
+        <v>319442</v>
       </c>
       <c r="D176" t="n">
-        <v>581716182</v>
+        <v>592358553</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>139616</v>
+        <v>142892</v>
       </c>
       <c r="D177" t="n">
-        <v>349981471</v>
+        <v>374303838</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>56911</v>
+        <v>57660</v>
       </c>
       <c r="D178" t="n">
-        <v>97259475</v>
+        <v>100112199</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>10965</v>
+        <v>11156</v>
       </c>
       <c r="D179" t="n">
-        <v>18462072</v>
+        <v>19048042</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>26699</v>
+        <v>27026</v>
       </c>
       <c r="D180" t="n">
-        <v>47149383</v>
+        <v>48847159</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>183918</v>
+        <v>185990</v>
       </c>
       <c r="D181" t="n">
-        <v>293232504</v>
+        <v>300103235</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>61125</v>
+        <v>61963</v>
       </c>
       <c r="D182" t="n">
-        <v>112933733</v>
+        <v>116958542</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>54256</v>
+        <v>54867</v>
       </c>
       <c r="D184" t="n">
-        <v>76046487</v>
+        <v>77880586</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>60965</v>
+        <v>61056</v>
       </c>
       <c r="D185" t="n">
-        <v>82528115</v>
+        <v>82708773</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>114401</v>
+        <v>115897</v>
       </c>
       <c r="D186" t="n">
-        <v>182963556</v>
+        <v>188423469</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>82429</v>
+        <v>84022</v>
       </c>
       <c r="D187" t="n">
-        <v>140663870</v>
+        <v>148341144</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5476</v>
+        <v>5494</v>
       </c>
       <c r="D188" t="n">
-        <v>7389491</v>
+        <v>7422602</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4560</v>
+        <v>4576</v>
       </c>
       <c r="D190" t="n">
-        <v>6236656</v>
+        <v>6271308</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7662,10 +7662,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7780</v>
+        <v>7783</v>
       </c>
       <c r="D193" t="n">
-        <v>11379912</v>
+        <v>11384412</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14923</v>
+        <v>14955</v>
       </c>
       <c r="D194" t="n">
-        <v>21045665</v>
+        <v>21135893</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2274</v>
+        <v>2282</v>
       </c>
       <c r="D195" t="n">
-        <v>3277267</v>
+        <v>3295858</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>10633</v>
+        <v>10690</v>
       </c>
       <c r="D196" t="n">
-        <v>16292123</v>
+        <v>16497910</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7814,10 +7814,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1238</v>
+        <v>1249</v>
       </c>
       <c r="D197" t="n">
-        <v>1791663</v>
+        <v>1820458</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7852,10 +7852,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D198" t="n">
-        <v>640556</v>
+        <v>642056</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1843</v>
+        <v>1849</v>
       </c>
       <c r="D199" t="n">
-        <v>2630797</v>
+        <v>2638862</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4950</v>
+        <v>4970</v>
       </c>
       <c r="D200" t="n">
-        <v>7199035</v>
+        <v>7255635</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3322</v>
+        <v>3338</v>
       </c>
       <c r="D201" t="n">
-        <v>5305397</v>
+        <v>5364392</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4183</v>
+        <v>4195</v>
       </c>
       <c r="D202" t="n">
-        <v>5449866</v>
+        <v>5462703</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5296</v>
+        <v>5298</v>
       </c>
       <c r="D203" t="n">
-        <v>7484639</v>
+        <v>7485763</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3996</v>
+        <v>4025</v>
       </c>
       <c r="D204" t="n">
-        <v>5975983</v>
+        <v>6050529</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5458</v>
+        <v>5466</v>
       </c>
       <c r="D205" t="n">
-        <v>6986350</v>
+        <v>6994767</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2281</v>
+        <v>2296</v>
       </c>
       <c r="D206" t="n">
-        <v>3091203</v>
+        <v>3112458</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2491</v>
+        <v>2521</v>
       </c>
       <c r="D207" t="n">
-        <v>3692111</v>
+        <v>3786839</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3369</v>
+        <v>3388</v>
       </c>
       <c r="D210" t="n">
-        <v>5118357</v>
+        <v>5185387</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6836</v>
+        <v>6952</v>
       </c>
       <c r="D211" t="n">
-        <v>11728727</v>
+        <v>12273411</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8384,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2670</v>
+        <v>2703</v>
       </c>
       <c r="D212" t="n">
-        <v>4291250</v>
+        <v>4447929</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5315</v>
+        <v>5389</v>
       </c>
       <c r="D213" t="n">
-        <v>9786027</v>
+        <v>10152110</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D214" t="n">
-        <v>1161355</v>
+        <v>1174960</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D215" t="n">
-        <v>419838</v>
+        <v>424338</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8536,10 +8536,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="D216" t="n">
-        <v>1410922</v>
+        <v>1434433</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3105</v>
+        <v>3137</v>
       </c>
       <c r="D217" t="n">
-        <v>4931856</v>
+        <v>5061885</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3538</v>
+        <v>3569</v>
       </c>
       <c r="D218" t="n">
-        <v>5801972</v>
+        <v>5921867</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1723</v>
+        <v>1744</v>
       </c>
       <c r="D219" t="n">
-        <v>2462745</v>
+        <v>2528107</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8688,10 +8688,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D220" t="n">
-        <v>2886595</v>
+        <v>2901684</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1751</v>
+        <v>1776</v>
       </c>
       <c r="D221" t="n">
-        <v>3020409</v>
+        <v>3102105</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8764,10 +8764,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3604</v>
+        <v>3672</v>
       </c>
       <c r="D222" t="n">
-        <v>5495628</v>
+        <v>5758670</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6099</v>
+        <v>6131</v>
       </c>
       <c r="D224" t="n">
-        <v>13681565</v>
+        <v>13835279</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D225" t="n">
-        <v>2484782</v>
+        <v>2487712</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D226" t="n">
-        <v>137143</v>
+        <v>147143</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3670</v>
+        <v>3695</v>
       </c>
       <c r="D227" t="n">
-        <v>8871303</v>
+        <v>9091384</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>16648</v>
+        <v>16726</v>
       </c>
       <c r="D228" t="n">
-        <v>38170028</v>
+        <v>38631973</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3290</v>
+        <v>3302</v>
       </c>
       <c r="D229" t="n">
-        <v>8177315</v>
+        <v>8240065</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1847</v>
+        <v>1856</v>
       </c>
       <c r="D230" t="n">
-        <v>4229313</v>
+        <v>4278753</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D234" t="n">
-        <v>1224283</v>
+        <v>1225783</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D235" t="n">
-        <v>1566110</v>
+        <v>1581930</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9288,10 +9288,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D236" t="n">
-        <v>1006821</v>
+        <v>1019812</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9326,10 +9326,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D237" t="n">
-        <v>584407</v>
+        <v>588483</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D238" t="n">
-        <v>783104</v>
+        <v>791804</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D239" t="n">
-        <v>1203174</v>
+        <v>1218174</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3636</v>
+        <v>3655</v>
       </c>
       <c r="D240" t="n">
-        <v>5371835</v>
+        <v>5438811</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6697</v>
+        <v>6782</v>
       </c>
       <c r="D242" t="n">
-        <v>9148204</v>
+        <v>9424010</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>16111</v>
+        <v>16150</v>
       </c>
       <c r="D245" t="n">
-        <v>23553152</v>
+        <v>23647335</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>33080</v>
+        <v>33647</v>
       </c>
       <c r="D246" t="n">
-        <v>56568532</v>
+        <v>59824487</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6773</v>
+        <v>6833</v>
       </c>
       <c r="D247" t="n">
-        <v>11334808</v>
+        <v>11548588</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9744,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>32036</v>
+        <v>32917</v>
       </c>
       <c r="D248" t="n">
-        <v>71753610</v>
+        <v>77678308</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9782,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2837</v>
+        <v>2879</v>
       </c>
       <c r="D249" t="n">
-        <v>4166766</v>
+        <v>4287222</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1445</v>
+        <v>1474</v>
       </c>
       <c r="D250" t="n">
-        <v>2261842</v>
+        <v>2314226</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9858,10 +9858,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4631</v>
+        <v>4681</v>
       </c>
       <c r="D251" t="n">
-        <v>7220519</v>
+        <v>7489749</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>14554</v>
+        <v>14770</v>
       </c>
       <c r="D252" t="n">
-        <v>23766810</v>
+        <v>24727811</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>7028</v>
+        <v>7092</v>
       </c>
       <c r="D253" t="n">
-        <v>11008012</v>
+        <v>11222433</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>8391</v>
+        <v>8516</v>
       </c>
       <c r="D255" t="n">
-        <v>11953348</v>
+        <v>12397405</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10900</v>
+        <v>10914</v>
       </c>
       <c r="D256" t="n">
-        <v>14347586</v>
+        <v>14391315</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>13116</v>
+        <v>13303</v>
       </c>
       <c r="D257" t="n">
-        <v>19974380</v>
+        <v>20757633</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>24589</v>
+        <v>25154</v>
       </c>
       <c r="D258" t="n">
-        <v>38780961</v>
+        <v>41181336</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>14141</v>
+        <v>14275</v>
       </c>
       <c r="D259" t="n">
-        <v>21986448</v>
+        <v>22530173</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>20546</v>
+        <v>20794</v>
       </c>
       <c r="D261" t="n">
-        <v>27259153</v>
+        <v>27981122</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10276,10 +10276,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D262" t="n">
-        <v>109745</v>
+        <v>119745</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -10314,10 +10314,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D263" t="n">
-        <v>1295828</v>
+        <v>1303828</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>46499</v>
+        <v>46625</v>
       </c>
       <c r="D264" t="n">
-        <v>67640320</v>
+        <v>68001268</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>80264</v>
+        <v>81720</v>
       </c>
       <c r="D265" t="n">
-        <v>138070156</v>
+        <v>146191883</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>17444</v>
+        <v>17600</v>
       </c>
       <c r="D266" t="n">
-        <v>30218978</v>
+        <v>30881992</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>70209</v>
+        <v>72035</v>
       </c>
       <c r="D267" t="n">
-        <v>149343967</v>
+        <v>161083448</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7940</v>
+        <v>8051</v>
       </c>
       <c r="D268" t="n">
-        <v>11588088</v>
+        <v>11934857</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10542,10 +10542,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3370</v>
+        <v>3406</v>
       </c>
       <c r="D269" t="n">
-        <v>5043931</v>
+        <v>5167904</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>13127</v>
+        <v>13273</v>
       </c>
       <c r="D270" t="n">
-        <v>19777130</v>
+        <v>20474658</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>41243</v>
+        <v>41804</v>
       </c>
       <c r="D271" t="n">
-        <v>64326050</v>
+        <v>66626857</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10656,10 +10656,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>21569</v>
+        <v>21830</v>
       </c>
       <c r="D272" t="n">
-        <v>33092218</v>
+        <v>34152822</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>24667</v>
+        <v>24993</v>
       </c>
       <c r="D274" t="n">
-        <v>32783890</v>
+        <v>33743552</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>35295</v>
+        <v>35321</v>
       </c>
       <c r="D275" t="n">
-        <v>46590400</v>
+        <v>46639079</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>32903</v>
+        <v>33408</v>
       </c>
       <c r="D276" t="n">
-        <v>49126972</v>
+        <v>50896003</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>55197</v>
+        <v>56582</v>
       </c>
       <c r="D277" t="n">
-        <v>83509046</v>
+        <v>89119205</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>15495</v>
+        <v>15644</v>
       </c>
       <c r="D278" t="n">
-        <v>22768042</v>
+        <v>23223485</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D279" t="n">
-        <v>51444</v>
+        <v>52944</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>22460</v>
+        <v>22730</v>
       </c>
       <c r="D280" t="n">
-        <v>30473908</v>
+        <v>31244935</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -10998,10 +10998,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D281" t="n">
-        <v>225224</v>
+        <v>229567</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D282" t="n">
-        <v>1284412</v>
+        <v>1293300</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>61109</v>
+        <v>61305</v>
       </c>
       <c r="D283" t="n">
-        <v>88854289</v>
+        <v>89356321</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>92485</v>
+        <v>94031</v>
       </c>
       <c r="D284" t="n">
-        <v>155913427</v>
+        <v>163869393</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>20927</v>
+        <v>21109</v>
       </c>
       <c r="D285" t="n">
-        <v>35475237</v>
+        <v>36187664</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>86204</v>
+        <v>88205</v>
       </c>
       <c r="D286" t="n">
-        <v>188982165</v>
+        <v>201983003</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11226,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>9934</v>
+        <v>10077</v>
       </c>
       <c r="D287" t="n">
-        <v>14614655</v>
+        <v>14992463</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11264,10 +11264,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3715</v>
+        <v>3778</v>
       </c>
       <c r="D288" t="n">
-        <v>5627516</v>
+        <v>5781544</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11302,10 +11302,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>15490</v>
+        <v>15646</v>
       </c>
       <c r="D289" t="n">
-        <v>23494834</v>
+        <v>24198782</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>48266</v>
+        <v>48941</v>
       </c>
       <c r="D290" t="n">
-        <v>76956389</v>
+        <v>79551221</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>23550</v>
+        <v>23817</v>
       </c>
       <c r="D291" t="n">
-        <v>36595726</v>
+        <v>37596559</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>30526</v>
+        <v>30940</v>
       </c>
       <c r="D293" t="n">
-        <v>39993866</v>
+        <v>41262707</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>39008</v>
+        <v>39062</v>
       </c>
       <c r="D294" t="n">
-        <v>51674016</v>
+        <v>51753812</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11530,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>39398</v>
+        <v>40006</v>
       </c>
       <c r="D295" t="n">
-        <v>60107592</v>
+        <v>62492661</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>56850</v>
+        <v>58242</v>
       </c>
       <c r="D296" t="n">
-        <v>81342317</v>
+        <v>86556023</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11606,10 +11606,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4559</v>
+        <v>4597</v>
       </c>
       <c r="D297" t="n">
-        <v>6785934</v>
+        <v>6889618</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9203</v>
+        <v>9310</v>
       </c>
       <c r="D299" t="n">
-        <v>12375212</v>
+        <v>12743034</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D301" t="n">
-        <v>809819</v>
+        <v>813319</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11796,10 +11796,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18737</v>
+        <v>18774</v>
       </c>
       <c r="D302" t="n">
-        <v>27340878</v>
+        <v>27439299</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>35023</v>
+        <v>35719</v>
       </c>
       <c r="D303" t="n">
-        <v>61180902</v>
+        <v>65310989</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>9156</v>
+        <v>9234</v>
       </c>
       <c r="D304" t="n">
-        <v>17074780</v>
+        <v>17482357</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>34126</v>
+        <v>35137</v>
       </c>
       <c r="D305" t="n">
-        <v>76309279</v>
+        <v>82855227</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +11948,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4653</v>
+        <v>4705</v>
       </c>
       <c r="D306" t="n">
-        <v>6799623</v>
+        <v>7024781</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2090</v>
+        <v>2123</v>
       </c>
       <c r="D307" t="n">
-        <v>3174656</v>
+        <v>3278409</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>6396</v>
+        <v>6462</v>
       </c>
       <c r="D308" t="n">
-        <v>9860983</v>
+        <v>10152726</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12062,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>22181</v>
+        <v>22524</v>
       </c>
       <c r="D309" t="n">
-        <v>35575827</v>
+        <v>37128090</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8394</v>
+        <v>8484</v>
       </c>
       <c r="D310" t="n">
-        <v>13682932</v>
+        <v>14120504</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12138,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10884</v>
+        <v>11028</v>
       </c>
       <c r="D311" t="n">
-        <v>15474191</v>
+        <v>16052257</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12176,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>19608</v>
+        <v>19627</v>
       </c>
       <c r="D312" t="n">
-        <v>25839055</v>
+        <v>25881782</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>18053</v>
+        <v>18311</v>
       </c>
       <c r="D313" t="n">
-        <v>27410563</v>
+        <v>28302408</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12252,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>28531</v>
+        <v>29287</v>
       </c>
       <c r="D314" t="n">
-        <v>46512984</v>
+        <v>50017085</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12290,10 +12290,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6533</v>
+        <v>6599</v>
       </c>
       <c r="D315" t="n">
-        <v>9986440</v>
+        <v>10225358</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>21807</v>
+        <v>22055</v>
       </c>
       <c r="D317" t="n">
-        <v>31321686</v>
+        <v>32174142</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D319" t="n">
-        <v>515411</v>
+        <v>518411</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -12480,10 +12480,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>54478</v>
+        <v>54652</v>
       </c>
       <c r="D320" t="n">
-        <v>80304550</v>
+        <v>80768899</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>99339</v>
+        <v>101042</v>
       </c>
       <c r="D321" t="n">
-        <v>171535202</v>
+        <v>180349225</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>39008</v>
+        <v>39417</v>
       </c>
       <c r="D322" t="n">
-        <v>71358889</v>
+        <v>73069073</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12594,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>87697</v>
+        <v>89899</v>
       </c>
       <c r="D323" t="n">
-        <v>208138645</v>
+        <v>223175313</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12632,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>10911</v>
+        <v>11061</v>
       </c>
       <c r="D324" t="n">
-        <v>17004921</v>
+        <v>17537843</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4227</v>
+        <v>4289</v>
       </c>
       <c r="D325" t="n">
-        <v>6552576</v>
+        <v>6727167</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12708,10 +12708,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>19794</v>
+        <v>20053</v>
       </c>
       <c r="D326" t="n">
-        <v>32657283</v>
+        <v>33773700</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>52365</v>
+        <v>53019</v>
       </c>
       <c r="D327" t="n">
-        <v>83718580</v>
+        <v>86188157</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12784,10 +12784,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>30303</v>
+        <v>30689</v>
       </c>
       <c r="D328" t="n">
-        <v>50235810</v>
+        <v>51733556</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>32603</v>
+        <v>33058</v>
       </c>
       <c r="D330" t="n">
-        <v>44183749</v>
+        <v>45532944</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12898,10 +12898,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>35953</v>
+        <v>36025</v>
       </c>
       <c r="D331" t="n">
-        <v>47760968</v>
+        <v>47855339</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>37372</v>
+        <v>37937</v>
       </c>
       <c r="D332" t="n">
-        <v>60037077</v>
+        <v>62116230</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>56387</v>
+        <v>57645</v>
       </c>
       <c r="D333" t="n">
-        <v>84924636</v>
+        <v>89797643</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
